--- a/data/trans_camb/P11_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9082043687047285</v>
+        <v>1.000002029971178</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1204199267052059</v>
+        <v>-0.1393143569981865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.353543398438779</v>
+        <v>5.193132542809547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.77546878126067</v>
+        <v>5.651251870872069</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.928110304555934</v>
+        <v>5.591239103587908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.570243963125428</v>
+        <v>8.621942703413698</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.884258806256486</v>
+        <v>4.053963782033556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.348610394056256</v>
+        <v>3.396770452896473</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.660017406582566</v>
+        <v>7.685298698683525</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.270652969726481</v>
+        <v>5.207317899119697</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.808699041235503</v>
+        <v>3.859597562781643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.39865971808077</v>
+        <v>10.45357394464679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.53034127573618</v>
+        <v>11.37724529146185</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.49080928109971</v>
+        <v>11.44173413820503</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.92527241977353</v>
+        <v>12.93531523940695</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.615724626609426</v>
+        <v>7.571529751026985</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.870641200921226</v>
+        <v>6.865744685614603</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.94780641725107</v>
+        <v>11.28557209460648</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>1.77269950173175</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3.236019039767244</v>
+        <v>3.236019039767245</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2381902030769688</v>
+        <v>0.1996454752790378</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03994242237253835</v>
+        <v>-0.06748145858206098</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.396239838401917</v>
+        <v>1.3101166023622</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.344196753513733</v>
+        <v>1.362854744275913</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.351275063435173</v>
+        <v>1.383708501744972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.983184823519679</v>
+        <v>2.048080111390973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.036422216179233</v>
+        <v>1.104733116059036</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8902989651773191</v>
+        <v>0.9434612928317677</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.004683052378006</v>
+        <v>2.12174333301619</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.773903526945083</v>
+        <v>2.743789992729941</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.143606677663235</v>
+        <v>2.057955691213335</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.536212505375564</v>
+        <v>5.76222520494361</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.965308257378505</v>
+        <v>5.480543800841176</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.53136847339061</v>
+        <v>5.529796681081218</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.279169684244208</v>
+        <v>6.650629534482664</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.221689877795603</v>
+        <v>3.324991471591751</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.957193564613057</v>
+        <v>2.906309315870069</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.902974290599337</v>
+        <v>5.143166945618519</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8323785381241493</v>
+        <v>-1.06356476680218</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.23409067011479</v>
+        <v>-2.319929274165575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3009559275143955</v>
+        <v>0.3768232729994563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.627638580685729</v>
+        <v>3.612718967581964</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.72529363636445</v>
+        <v>1.684782161490316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.288152268781684</v>
+        <v>6.330271509447716</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.923854687782255</v>
+        <v>1.752631841053029</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2384266587140451</v>
+        <v>0.1620806026028957</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.145801654875434</v>
+        <v>4.018683688882111</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.000334298551483</v>
+        <v>2.791765656450187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.358558605899641</v>
+        <v>1.179612131052795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.21714613386993</v>
+        <v>4.26681460663317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.587326010296998</v>
+        <v>8.158626406374429</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.493483370489492</v>
+        <v>6.163091562555549</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.58723247270337</v>
+        <v>10.75098226590695</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.008584408585116</v>
+        <v>4.853774520251174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.130733974974773</v>
+        <v>3.142098352570926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.024173239024663</v>
+        <v>6.931756296399555</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1682112021931026</v>
+        <v>-0.2233943080211873</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4387735911075825</v>
+        <v>-0.4627553600227432</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03049176698637658</v>
+        <v>0.07233571078426286</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6961948763728033</v>
+        <v>0.6506776955909953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3351512078668364</v>
+        <v>0.2887331625295855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.163858785216369</v>
+        <v>1.120510947940299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3929926577740419</v>
+        <v>0.3680917549793914</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05238878426910575</v>
+        <v>0.03715694669335425</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8327038374190162</v>
+        <v>0.8168310627502611</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8947033951246971</v>
+        <v>0.8832989429343181</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4208873476157417</v>
+        <v>0.3755308752226252</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.313286640187272</v>
+        <v>1.364560647506418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.605227203124707</v>
+        <v>2.497961607229578</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.106254013738007</v>
+        <v>1.858491650084411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.379410640841006</v>
+        <v>3.398535180566403</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.393655906232867</v>
+        <v>1.444031431867465</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9188365125474467</v>
+        <v>0.9192371839357643</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.00936020955158</v>
+        <v>2.003958109883275</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.005499998030406017</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.588336585803745</v>
+        <v>2.588336585803743</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.834016553510887</v>
@@ -1083,7 +1083,7 @@
         <v>0.4057929730952314</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.7534853645667083</v>
+        <v>-0.7534853645667097</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6383236820982442</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.150152076122451</v>
+        <v>-1.803239381013134</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.279277424843838</v>
+        <v>-2.217010231360571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05785032903016536</v>
+        <v>0.1512957054251041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.416694783656255</v>
+        <v>-2.503251758683176</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.574893642553404</v>
+        <v>-2.424205930718371</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.428638322881687</v>
+        <v>-3.473007939686178</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.184093066785303</v>
+        <v>-1.312424582225443</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.594505963382791</v>
+        <v>-1.711435318799569</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9337428371277153</v>
+        <v>-0.9855982520753478</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.538148233378335</v>
+        <v>2.605350448980166</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.108216488216168</v>
+        <v>1.981469430881242</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.934620312515059</v>
+        <v>5.051519238356309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.107956134749323</v>
+        <v>3.478979505290538</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.583053927545157</v>
+        <v>3.516525066103775</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.781182766463926</v>
+        <v>1.772536823414832</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.556391826704801</v>
+        <v>2.50371339023719</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.07324912708191</v>
+        <v>2.004420955739246</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.831463363643188</v>
+        <v>2.575881970285244</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.001490560038719678</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7014677205748712</v>
+        <v>0.7014677205748708</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.09721865659952636</v>
@@ -1188,7 +1188,7 @@
         <v>0.04730199602846512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08783139207754768</v>
+        <v>-0.08783139207754784</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.103895585217153</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4299519649809037</v>
+        <v>-0.3798154010653949</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4689789556239164</v>
+        <v>-0.4664563170376949</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.001843821227548567</v>
+        <v>0.01999524233096763</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2416738409161845</v>
+        <v>-0.2474886689138466</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2564076940704804</v>
+        <v>-0.2485826711461745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3357777315731663</v>
+        <v>-0.3484124553142237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1635313967079926</v>
+        <v>-0.1893653274477851</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.226226600994643</v>
+        <v>-0.2352943900836794</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1351645704214486</v>
+        <v>-0.1381912532264941</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.000304801818594</v>
+        <v>1.022945512513372</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7857200949056847</v>
+        <v>0.8096301892663388</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.904548402245928</v>
+        <v>1.921452512897491</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5751312478187071</v>
+        <v>0.5002239615051723</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5148986175352098</v>
+        <v>0.5162915192206482</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2626742571052214</v>
+        <v>0.2478164528035927</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4893835304199705</v>
+        <v>0.5017679691782532</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3936250747429185</v>
+        <v>0.3847074110526539</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5426183659617807</v>
+        <v>0.4921684131200076</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.48693586531634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.767645683913119</v>
+        <v>5.767645683913121</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.598716924682773</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2284949089702867</v>
+        <v>0.2233910218610538</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2960854425468276</v>
+        <v>-0.2415817026891662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.828320281784237</v>
+        <v>3.788216140838521</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.241110009735853</v>
+        <v>1.198348330965026</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.142291479576308</v>
+        <v>1.353767364628864</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.133021491021452</v>
+        <v>7.16456528834101</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.285338247463307</v>
+        <v>1.362523821494571</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.087922420262231</v>
+        <v>1.170187810378421</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.328285530701802</v>
+        <v>6.246892223699609</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.063749774618238</v>
+        <v>3.992774107371535</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.371750451207205</v>
+        <v>3.400991521760532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.014722166494332</v>
+        <v>7.841213625380104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.815368841949478</v>
+        <v>5.945047918846867</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.743713648534906</v>
+        <v>5.938066604593092</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.57904232736433</v>
+        <v>11.49915230500739</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.290407355554705</v>
+        <v>4.365987985005985</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.091590675350216</v>
+        <v>4.001190707685645</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.521145013674287</v>
+        <v>9.44247938475478</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02928111543752052</v>
+        <v>0.02164146992274818</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1015803031668223</v>
+        <v>-0.07924468138838452</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8949246266550329</v>
+        <v>0.8853879582969003</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1830367090630287</v>
+        <v>0.155178919615064</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1504851324922169</v>
+        <v>0.1893153980281161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.06881410155413</v>
+        <v>1.103872249033187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.240939117240571</v>
+        <v>0.2671565867377554</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2091339411943995</v>
+        <v>0.2214646401978489</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.234716827714604</v>
+        <v>1.20320374495314</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.562801194491835</v>
+        <v>1.401075127849123</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.304598986258277</v>
+        <v>1.337515997891068</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.097948289201679</v>
+        <v>3.039617530407276</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.321216823316861</v>
+        <v>1.295778814139235</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.303012206695389</v>
+        <v>1.321254451269208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.742367943626272</v>
+        <v>2.677573776072926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.112164671856207</v>
+        <v>1.167943682276815</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.043370012377356</v>
+        <v>1.060087542605121</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.605128167342903</v>
+        <v>2.522333238377096</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.939452361895486</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.282668710584458</v>
+        <v>7.282668710584457</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.150950152053396</v>
@@ -1520,7 +1520,7 @@
         <v>2.328590202637038</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.894475417258369</v>
+        <v>5.894475417258371</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4873370100407166</v>
+        <v>0.609284693343078</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3739661028165633</v>
+        <v>-0.3860309083878609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.34168505971458</v>
+        <v>3.346626153582392</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.332340351734993</v>
+        <v>3.392226403558374</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.679712409417568</v>
+        <v>2.653186304663572</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.020676107675071</v>
+        <v>6.152060237029372</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.278890379191618</v>
+        <v>2.279824315280409</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.507351927006644</v>
+        <v>1.482289398912835</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.079983881362049</v>
+        <v>5.132581275844196</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.532093149093071</v>
+        <v>2.582825517210199</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.579044025549797</v>
+        <v>1.583009021178663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.518805059021347</v>
+        <v>5.46536947597062</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.948314071785512</v>
+        <v>5.821508177619121</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.225944211179296</v>
+        <v>5.156450081931649</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.369080359218858</v>
+        <v>8.533775052144286</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.891207170061992</v>
+        <v>4.016185100939454</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.120879326338385</v>
+        <v>3.094759976497515</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.660914944497379</v>
+        <v>6.770718946484397</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1270280474771649</v>
+        <v>0.1508379334677494</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09060403324132392</v>
+        <v>-0.1063378398132139</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8107066686705658</v>
+        <v>0.8362810427688391</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5867365194609807</v>
+        <v>0.5959212434963155</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4721204389814894</v>
+        <v>0.4662860950831895</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.033435706202774</v>
+        <v>1.045360018440118</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4871245428988275</v>
+        <v>0.4749827642634251</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3184253878146223</v>
+        <v>0.3162659367485153</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.048934451951642</v>
+        <v>1.094779117182615</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8553061764054921</v>
+        <v>0.8840133570569624</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5203355637070265</v>
+        <v>0.5290683271644492</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.774562474188088</v>
+        <v>1.772737184399083</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.29208999877757</v>
+        <v>1.235122859263303</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.140622201931527</v>
+        <v>1.098063571547517</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.884945088294401</v>
+        <v>1.849039645527455</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9739264677655255</v>
+        <v>0.990158410648184</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7843719725865316</v>
+        <v>0.7799652694864068</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.674996891936532</v>
+        <v>1.697314047185633</v>
       </c>
     </row>
     <row r="34">
